--- a/files/LCI_uncertainty.xlsx
+++ b/files/LCI_uncertainty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="LCI_uncertainty" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>LCI uncertainty</t>
   </si>
@@ -140,18 +140,6 @@
   </si>
   <si>
     <t>working material</t>
-  </si>
-  <si>
-    <t>aerosol loading</t>
-  </si>
-  <si>
-    <t>aerosol formation</t>
-  </si>
-  <si>
-    <t>kg PM10-eq</t>
-  </si>
-  <si>
-    <t>PM10</t>
   </si>
   <si>
     <t>energy</t>
@@ -497,32 +485,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -551,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -579,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,7 +584,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E16" si="0">F6/EXP(3*SQRT(D6))</f>
+        <f t="shared" ref="E6:E15" si="0">F6/EXP(3*SQRT(D6))</f>
         <v>0.92915036885309432</v>
       </c>
       <c r="F6">
@@ -613,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -634,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G16" si="1">F7*EXP(3*SQRT(D7))</f>
+        <f t="shared" ref="G7:G15" si="1">F7*EXP(3*SQRT(D7))</f>
         <v>1.8221188003905091</v>
       </c>
       <c r="H7">
@@ -644,7 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -675,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -703,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -734,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -765,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -796,15 +784,15 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -827,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -858,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -872,55 +860,24 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.35372677547714548</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>2.8270407255743937</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -930,37 +887,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -989,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +991,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="0">F6/EXP(3*SQRT(D6))</f>
+        <f t="shared" ref="E6:E14" si="0">F6/EXP(3*SQRT(D6))</f>
         <v>0.92915036885309432</v>
       </c>
       <c r="F6">
@@ -1051,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G15" si="1">F7*EXP(3*SQRT(D7))</f>
+        <f t="shared" ref="G7:G14" si="1">F7*EXP(3*SQRT(D7))</f>
         <v>1.8221188003905091</v>
       </c>
       <c r="H7">
@@ -1082,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1268,7 +1225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1279,55 +1236,24 @@
         <v>42</v>
       </c>
       <c r="D14">
-        <v>0.12</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.35372677547714548</v>
+        <v>0.92915036885309432</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>2.8270407255743937</v>
+        <v>1.0762520615843478</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.92915036885309432</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>1.0762520615843478</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
